--- a/misc/table.xlsx
+++ b/misc/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\tagfalter\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/maureol1_students_zhaw_ch/Documents/Dokumente/ZHAW/FS25/ArBi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9504A8CD-4E8F-4511-A223-390092FCE3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="8_{DFD0159E-FAF5-4093-8DB8-C229F9DCECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B7DFDE-4680-4FAA-8B3C-0C11832F6C52}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="2415" windowWidth="25260" windowHeight="18015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="878">
   <si>
     <t>Gattung</t>
   </si>
@@ -367,9 +367,6 @@
     <t>Postillon (Wandergelbling)</t>
   </si>
   <si>
-    <t>orange;gelb</t>
-  </si>
-  <si>
     <t>schwarze Randbinde;gelb gefleckt</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>Hamearis lucina</t>
   </si>
   <si>
-    <t>SchlÃ¼sselblumen-WÃ¼rfelfalter</t>
-  </si>
-  <si>
     <t>Lycaenidae</t>
   </si>
   <si>
@@ -487,9 +481,6 @@
     <t>Saum braun-weiss gewÃ¼rfelt</t>
   </si>
   <si>
-    <t>orangebraun;weisse Postdiskalbinde</t>
-  </si>
-  <si>
     <t>SchlÃ¼sselblumen-Arten</t>
   </si>
   <si>
@@ -811,9 +802,6 @@
     <t>Alexis-BlÃ¤uling</t>
   </si>
   <si>
-    <t>blau;hellgrau;barun</t>
-  </si>
-  <si>
     <t>blau bestÃ¤ubte Basis</t>
   </si>
   <si>
@@ -1006,9 +994,6 @@
     <t>Hauhechel-BlÃ¤uling</t>
   </si>
   <si>
-    <t>Basalpunkt</t>
-  </si>
-  <si>
     <t>thersites</t>
   </si>
   <si>
@@ -1078,9 +1063,6 @@
     <t>Spitzen dunkel</t>
   </si>
   <si>
-    <t>Binde scharf abgesetzt</t>
-  </si>
-  <si>
     <t>Limenitis</t>
   </si>
   <si>
@@ -1135,9 +1117,6 @@
     <t>Limenitis reducta</t>
   </si>
   <si>
-    <t>SÃ¼dlicher Kleiner Eisvogel</t>
-  </si>
-  <si>
     <t>blauschwarze Punktreihe; weisser Fleck</t>
   </si>
   <si>
@@ -1156,9 +1135,6 @@
     <t>Neptis rivularis</t>
   </si>
   <si>
-    <t>WeiÃer Eichenzipfelfalter</t>
-  </si>
-  <si>
     <t>schwarz; orange</t>
   </si>
   <si>
@@ -2077,9 +2053,6 @@
     <t>1 weisser Wisch; orange Submarginalflecken</t>
   </si>
   <si>
-    <t>hellbeiger Wisch; blau bestÃ¤ubte Basis;orange Submarginalflecken</t>
-  </si>
-  <si>
     <t>weisser Saum; 1 weisser Wisch; orange Submarginalflecken</t>
   </si>
   <si>
@@ -2212,9 +2185,6 @@
     <t>Boloria_titania_1.jpg; Boloria_titania_2.jpg; Boloria_titania_3.jpg</t>
   </si>
   <si>
-    <t>Fabriciana_adippe_1.jpg; Fabriciana_adippe_2.jpg; Fabriciana_adippe_3.jpg</t>
-  </si>
-  <si>
     <t>Fabriciana_niobe_1.jpg; Fabriciana_niobe_2.jpg; Fabriciana_niobe_3.jpg</t>
   </si>
   <si>
@@ -2245,18 +2215,12 @@
     <t xml:space="preserve">orange; schwarz </t>
   </si>
   <si>
-    <t>schwarze Flecken; Duftschuppen-Streifen</t>
-  </si>
-  <si>
     <t xml:space="preserve">schwarze Flecken </t>
   </si>
   <si>
     <t>weisser Strich, olivgrün</t>
   </si>
   <si>
-    <t>Speyeria_aglaja_1.jpg; Speyeria_aglaja_2.jpg: Speyeria_aglaja_3.jpg</t>
-  </si>
-  <si>
     <t>orange; schwarz</t>
   </si>
   <si>
@@ -2449,18 +2413,12 @@
     <t>Apatura iris_38763W.JPG; Apatura iris_18593W.JPG; Apatura_Raupe.png; th-294f226d6f43d1df03df5e0e35308010dc72a54a.jpg; paste-22a2f53c2fceb271c25ccaa2b9ae9fd2715cc318.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Boloria_euphrosine_1.jpg; </t>
-  </si>
-  <si>
     <t>weisse Flecken; schwarze Flecken</t>
   </si>
   <si>
     <t xml:space="preserve">Viola </t>
   </si>
   <si>
-    <t xml:space="preserve">Boloria_selene_1.jpg; </t>
-  </si>
-  <si>
     <t>Änhlicher Perlmutterfalter / Hochalpen-Perlmutterfalter</t>
   </si>
   <si>
@@ -2476,19 +2434,10 @@
     <t>Salweide; Salix; Pappel-Arten</t>
   </si>
   <si>
-    <t xml:space="preserve">Boloria_napaea_pales_1.jpg; </t>
-  </si>
-  <si>
-    <t>Euphydryas_aurinia_aurinia_1.jpg;</t>
-  </si>
-  <si>
     <t>Violetter Silberfalter / Mädesüss-Perlmutterfalter</t>
   </si>
   <si>
     <t>schwarze Flecken; schwarzer Rand</t>
-  </si>
-  <si>
-    <t>violettt; weisse Flecken</t>
   </si>
   <si>
     <t>Filipendula ulmaria; Sanguisorba
@@ -2496,24 +2445,12 @@
 minor</t>
   </si>
   <si>
-    <t>Brenthis_ino_1.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">violett; </t>
   </si>
   <si>
     <t>Rubus</t>
   </si>
   <si>
-    <t xml:space="preserve">Brenthis_daphne_1.jpg; </t>
-  </si>
-  <si>
-    <t>Melitaea_aurelia_1.jpg;</t>
-  </si>
-  <si>
-    <t>Melitaea_varia_1.jpg;</t>
-  </si>
-  <si>
     <t>orange; gelb; braun; schwarz</t>
   </si>
   <si>
@@ -2523,9 +2460,6 @@
     <t>Plantago</t>
   </si>
   <si>
-    <t xml:space="preserve">Melitaea_cinxia_1.jpg; </t>
-  </si>
-  <si>
     <t>Flockenblumen-Scheckenfalter</t>
   </si>
   <si>
@@ -2541,9 +2475,6 @@
     <t>Centaurea scabiosa; Distel</t>
   </si>
   <si>
-    <t xml:space="preserve">Melitaea_phoebe_1.jpg; </t>
-  </si>
-  <si>
     <t>orange; schwarz; grau; rot; braun</t>
   </si>
   <si>
@@ -2556,18 +2487,12 @@
     <t xml:space="preserve">Plantago; Polygonum </t>
   </si>
   <si>
-    <t xml:space="preserve">Melitaea_didyma_1.jpg; </t>
-  </si>
-  <si>
     <t>weisse Flecken; orange Flecken</t>
   </si>
   <si>
     <t>vieles</t>
   </si>
   <si>
-    <t xml:space="preserve">Melitaea_athalia_1.jpg; </t>
-  </si>
-  <si>
     <t>orange; braun;schwarz; grau</t>
   </si>
   <si>
@@ -2589,9 +2514,6 @@
     <t xml:space="preserve">Plantago </t>
   </si>
   <si>
-    <t xml:space="preserve">Melitaea_parthenoides_1.jpg; </t>
-  </si>
-  <si>
     <t>Bündner Scheckenfalter</t>
   </si>
   <si>
@@ -2613,9 +2535,6 @@
     <t>Baldrian</t>
   </si>
   <si>
-    <t xml:space="preserve">Melitaea_diamina_1.jpg; </t>
-  </si>
-  <si>
     <t>aurinia aurinia</t>
   </si>
   <si>
@@ -2649,7 +2568,94 @@
     <t>Plantago; Viola</t>
   </si>
   <si>
-    <t xml:space="preserve">Euphydryas_cynthia_1.jpg; </t>
+    <t>Boloria_euphrosine_2.jpg; Boloria_euphrosine_3.jpg; Boloria_euphrosine_1.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boloria_napaea_pales_2.JPG; Boloria_napaea_pales_3.JPG; Boloria_napaea_pales_4.JPG; Boloria_napaea_pales_1.jpg; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boloria_selene_2.jpg; Boloria_selene_3.jpg; Boloria_selene_1.jpg; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenthis_daphne_2.JPG; Brenthis_daphne_3.JPG; Brenthis_daphne_1.JPG; </t>
+  </si>
+  <si>
+    <t>Brenthis_ino_2.JPG; Brenthis_ino_3.JPG; Brenthis_ino_1.JPG;</t>
+  </si>
+  <si>
+    <t>Euphydryas_aurinia_aurinia_2.JPG; Euphydryas_aurinia_aurinia_3.JPG; Euphydryas_aurinia_aurinia_1.JPG;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euphydryas_cynthia_2.JPG; Euphydryas_cynthia_3.JPG; Euphydryas_cynthia_4.JPG; Euphydryas_cynthia_1.JPG; </t>
+  </si>
+  <si>
+    <t>Fabriciana_adippe_1.jpg; Fabriciana_adippe_2.jpg; Fabriciana_adippe_3.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melitaea_athalia_2.JPG; Melitaea_athalia_3.JPG; Melitaea_athalia_1.JPG; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melitaea_aurelia_2.JPG; Melitaea_aurelia_3.JPG; Melitaea_aurelia_1.JPG; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melitaea_cinxia_2.JPG;  Melitaea_cinxia_3.JPG; Melitaea_cinxia_4.JPG; Melitaea_cinxia_1.JPG; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melitaea_diamina_2.JPG; Melitaea_diamina_3.JPG; Melitaea_diamina_1.JPG; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melitaea_didyma_2.JPG; Melitaea_didyma_3.JPG; Melitaea_didyma_1.JPG; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melitaea_parthenoides_2.JPG; Melitaea_parthenoides_3.JPG; Melitaea_parthenoides_1.JPG; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melitaea_phoebe_2.JPG;  Melitaea_phoebe_3.JPG;  Melitaea_phoebe_1.JPG;  </t>
+  </si>
+  <si>
+    <t>Melitaea_varia_2.jpg; Melitaea_varia_3.jpg; Melitaea_varia_1.JPG;</t>
+  </si>
+  <si>
+    <t>Blauschwarzer Eisvogel</t>
+  </si>
+  <si>
+    <t>blau; schwarz</t>
+  </si>
+  <si>
+    <t>Schwarzer Trauerfalter</t>
+  </si>
+  <si>
+    <t>schwarze Flecken; schwarze Streifen</t>
+  </si>
+  <si>
+    <t>orange;gelb; schwarz</t>
+  </si>
+  <si>
+    <t>gelb;weiss; schwarz</t>
+  </si>
+  <si>
+    <t>violett; weisse Flecken</t>
+  </si>
+  <si>
+    <t>blau;braun; hellgrau</t>
+  </si>
+  <si>
+    <t>blau; braun; rot; orange</t>
+  </si>
+  <si>
+    <t>Brauner Würfelfalter, Frühlings-Scheckenfalter</t>
+  </si>
+  <si>
+    <t>orangebraun;weisse Flecken</t>
+  </si>
+  <si>
+    <t>braun; blau</t>
+  </si>
+  <si>
+    <t>1 weisser Wisch; blau bestÃ¤ubte Basis;orange Submarginalflecken</t>
+  </si>
+  <si>
+    <t>Speyeria_aglaja_1.jpg; Speyeria_aglaja_2.jpg; Speyeria_aglaja_3.jpg</t>
   </si>
 </sst>
 </file>
@@ -2698,7 +2704,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2916,26 +2922,26 @@
   </sheetPr>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Q82" sqref="Q82"/>
+      <selection pane="bottomLeft" activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="74.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>24</v>
@@ -3023,7 +3029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>24</v>
@@ -3055,13 +3061,13 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -3087,22 +3093,22 @@
         <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -3125,22 +3131,22 @@
         <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -3169,22 +3175,22 @@
         <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -3210,10 +3216,10 @@
         <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>60</v>
@@ -3228,7 +3234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -3260,10 +3266,10 @@
         <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>69</v>
@@ -3278,7 +3284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -3307,10 +3313,10 @@
         <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>79</v>
@@ -3322,7 +3328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -3348,10 +3354,10 @@
         <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>79</v>
@@ -3363,7 +3369,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -3389,10 +3395,10 @@
         <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>91</v>
@@ -3404,7 +3410,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -3433,10 +3439,10 @@
         <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>79</v>
@@ -3448,7 +3454,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -3474,10 +3480,10 @@
         <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>79</v>
@@ -3489,7 +3495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
@@ -3515,10 +3521,10 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>79</v>
@@ -3530,7 +3536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
@@ -3547,218 +3553,218 @@
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" t="s">
+        <v>670</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="L15" t="s">
-        <v>678</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s">
+        <v>670</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" t="s">
-        <v>678</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>670</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" t="s">
-        <v>678</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="L19" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>56</v>
@@ -3767,39 +3773,39 @@
         <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" t="s">
+        <v>670</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" t="s">
-        <v>678</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>56</v>
@@ -3808,4043 +3814,4049 @@
         <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q21" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L22" t="s">
-        <v>226</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="L24" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="L25" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="L26" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="L27" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="L28" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="L29" t="s">
+        <v>670</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="P29" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L29" t="s">
-        <v>678</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="L30" t="s">
+        <v>670</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L30" t="s">
-        <v>678</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="L31" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L32" t="s">
+        <v>670</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="L32" t="s">
-        <v>678</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="L33" t="s">
+        <v>670</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L33" t="s">
-        <v>678</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J34" t="s">
-        <v>225</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J35" t="s">
-        <v>225</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="L37" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q37" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" t="s">
+        <v>680</v>
+      </c>
+      <c r="L39" t="s">
+        <v>670</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="L40" t="s">
+        <v>670</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L41" t="s">
+        <v>670</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" t="s">
+        <v>222</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K43" t="s">
+        <v>222</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L44" t="s">
+        <v>670</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L45" t="s">
+        <v>670</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="L46" t="s">
+        <v>670</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L47" t="s">
+        <v>670</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="L48" t="s">
+        <v>670</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D38" s="1" t="s">
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K50" t="s">
+        <v>679</v>
+      </c>
+      <c r="L50" t="s">
+        <v>670</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="L51" t="s">
+        <v>670</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="L52" t="s">
+        <v>670</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="P52" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K53" t="s">
+        <v>222</v>
+      </c>
+      <c r="L53" t="s">
+        <v>670</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K54" t="s">
+        <v>222</v>
+      </c>
+      <c r="L54" t="s">
+        <v>670</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="L55" t="s">
+        <v>670</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L57" t="s">
+        <v>670</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L58" t="s">
+        <v>670</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L59" t="s">
+        <v>670</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L60" t="s">
+        <v>670</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L61" t="s">
+        <v>670</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L62" t="s">
+        <v>670</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="M63" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="L39" t="s">
-        <v>678</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L40" t="s">
-        <v>678</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K41" s="1" t="s">
+      <c r="M64" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N64" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="L41" t="s">
-        <v>678</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K42" t="s">
-        <v>225</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K43" t="s">
-        <v>225</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="P64" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="L44" t="s">
-        <v>678</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="L45" t="s">
-        <v>678</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="L46" t="s">
-        <v>678</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="L47" t="s">
-        <v>678</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="L48" t="s">
-        <v>678</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K50" t="s">
-        <v>688</v>
-      </c>
-      <c r="L50" t="s">
-        <v>678</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="L51" t="s">
-        <v>678</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="L52" t="s">
-        <v>678</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K53" t="s">
-        <v>225</v>
-      </c>
-      <c r="L53" t="s">
-        <v>678</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K54" t="s">
-        <v>225</v>
-      </c>
-      <c r="L54" t="s">
-        <v>678</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="L55" t="s">
-        <v>678</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="Q65" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="L57" t="s">
-        <v>678</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L58" t="s">
-        <v>678</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L59" t="s">
-        <v>678</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="L60" t="s">
-        <v>678</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="L61" t="s">
-        <v>678</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L62" t="s">
-        <v>678</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="F66" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="I66" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="Q66" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="M67" t="s">
+        <v>671</v>
+      </c>
+      <c r="N67" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="M67" t="s">
-        <v>679</v>
-      </c>
-      <c r="N67" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K68" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="P68" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="H69" s="1" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="I69" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E71" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K74" t="s">
+        <v>743</v>
+      </c>
+      <c r="M74" t="s">
+        <v>671</v>
+      </c>
+      <c r="N74" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N77" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="I79" t="s">
+        <v>805</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="I80" t="s">
+        <v>840</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K80" t="s">
+        <v>841</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="I81" t="s">
+        <v>845</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="K81" t="s">
+        <v>846</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N82" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K74" t="s">
-        <v>755</v>
-      </c>
-      <c r="M74" t="s">
-        <v>679</v>
-      </c>
-      <c r="N74" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N77" t="s">
-        <v>759</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="I79" t="s">
-        <v>821</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="I80" t="s">
-        <v>867</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K80" t="s">
-        <v>868</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="I81" t="s">
-        <v>872</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="K81" t="s">
-        <v>873</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N82" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>746</v>
-      </c>
       <c r="I83" s="1" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="Q83" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N84" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K85" t="s">
+        <v>737</v>
+      </c>
+      <c r="M85" t="s">
+        <v>671</v>
+      </c>
+      <c r="N85" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N84" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="E86" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="I86" t="s">
+        <v>734</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N86" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K85" t="s">
-        <v>749</v>
-      </c>
-      <c r="M85" t="s">
-        <v>679</v>
-      </c>
-      <c r="N85" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="I86" t="s">
-        <v>746</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N86" t="s">
-        <v>846</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="I87" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="N87" t="s">
+        <v>811</v>
+      </c>
+      <c r="P87" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="K88" t="s">
+        <v>810</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N88" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="K90" t="s">
+        <v>819</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="I91" t="s">
+        <v>827</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="P91" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="K92" t="s">
+        <v>815</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N92" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="P87" t="s">
-        <v>853</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="K88" t="s">
-        <v>831</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N88" t="s">
-        <v>832</v>
-      </c>
-      <c r="Q88" t="s">
+      <c r="J93" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K93" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="Q89" t="s">
+      <c r="M93" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q93" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C90" s="1" t="s">
+    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="K90" t="s">
-        <v>842</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="I91" t="s">
-        <v>852</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="P91" t="s">
-        <v>853</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="K92" t="s">
-        <v>837</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N92" t="s">
-        <v>838</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="K93" t="s">
-        <v>859</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="E95" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="E96" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E97" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="E98" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="E99" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="E101" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="E106" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="D108" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="D111" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D112" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E113" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D114" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="E115" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="E116" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="D117" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="E118" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="E119" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E120" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D121" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E122" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="E123" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="E124" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B123" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E125" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+      <c r="E126" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="E128" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="E129" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B130" s="1" t="s">
+    </row>
+    <row r="132" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="E132" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="E133" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E134" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B134" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="E136" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="E137" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E138" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+      <c r="E139" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+      <c r="E140" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+      <c r="E141" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E143" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B143" s="1" t="s">
+    </row>
+    <row r="145" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+      <c r="E145" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E146" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="E147" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="P147" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="E148" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="E149" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="P147" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="E150" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="E151" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="E152" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="E153" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/misc/table.xlsx
+++ b/misc/table.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/maureol1_students_zhaw_ch/Documents/Dokumente/ZHAW/FS25/ArBi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="8_{DFD0159E-FAF5-4093-8DB8-C229F9DCECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B7DFDE-4680-4FAA-8B3C-0C11832F6C52}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="8_{DFD0159E-FAF5-4093-8DB8-C229F9DCECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2EB643-D5D5-4E0E-BB3F-892582FF3DF8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="885">
   <si>
     <t>Gattung</t>
   </si>
@@ -298,9 +299,6 @@
     <t>Brassicaceae; Schleifenblume</t>
   </si>
   <si>
-    <t>mannii54.jpg; Pieris mannii_46578W.JPG; paste-e65030b5bb3565e1b210d7d08f9ec0c11c788d34.jpg</t>
-  </si>
-  <si>
     <t>napi</t>
   </si>
   <si>
@@ -358,12 +356,6 @@
     <t>Colias</t>
   </si>
   <si>
-    <t>crocea</t>
-  </si>
-  <si>
-    <t>Colias crocea</t>
-  </si>
-  <si>
     <t>Postillon (Wandergelbling)</t>
   </si>
   <si>
@@ -379,9 +371,6 @@
     <t>SchmetterlingsblÃ¼tler</t>
   </si>
   <si>
-    <t>Goldene Acht / Hufeisenklee-Gelbling</t>
-  </si>
-  <si>
     <t>gelb;weiss</t>
   </si>
   <si>
@@ -418,9 +407,6 @@
     <t>helle Randbinde</t>
   </si>
   <si>
-    <t>Colias phicomone_13416W.JPG; Colias phicomone_23037W.JPG; 01.jpg; paste-d70ee2ed851793fa1e12d228aef24894f26593ce.jpg</t>
-  </si>
-  <si>
     <t>Gonepteryx</t>
   </si>
   <si>
@@ -628,9 +614,6 @@
     <t>Lycaena hippothoe</t>
   </si>
   <si>
-    <t>Lilagold-Feuerfalter</t>
-  </si>
-  <si>
     <t>braun;orange;hellgrau</t>
   </si>
   <si>
@@ -802,9 +785,6 @@
     <t>Alexis-BlÃ¤uling</t>
   </si>
   <si>
-    <t>blau bestÃ¤ubte Basis</t>
-  </si>
-  <si>
     <t>Luzerne;Esparsette;Steinklee;Vogewicke</t>
   </si>
   <si>
@@ -910,9 +890,6 @@
     <t>Heller Wiesenknopf-AmeisenblÃ¤uling</t>
   </si>
   <si>
-    <t>Postdiskalfleck in Raum 2 gleich weit vom Diskalfleck wie vom Submarginalfleck entfernt</t>
-  </si>
-  <si>
     <t>Plebejus</t>
   </si>
   <si>
@@ -2275,12 +2252,6 @@
     <t>Aglais_urticae_1.jpg; Aglais_urticae_2.jpg; Aglais_urticae_4.jpg; Aglais_urticae_3.jpg</t>
   </si>
   <si>
-    <t>Colias hyale_50342W.JPG; Colias hyale_50294W.JPG; 12159921.jpg; Colias_alfacariensis_1.png; paste-229a4aa31ec7655eca381bb7b79bb8bd1c004eb1.jpg</t>
-  </si>
-  <si>
-    <t>Colias hyale_50342W.JPG; Colias hyale_50294W.JPG; 12159921.jpg; Colias_hyale_1.png; paste-229a4aa31ec7655eca381bb7b79bb8bd1c004eb1.jpg</t>
-  </si>
-  <si>
     <t>Papilio machaon_45378W.JPG; papilio_machaon_1.jpg; paste-c562662b3a07a5ea620ba6972073395ea2bb9c11.jpg</t>
   </si>
   <si>
@@ -2351,9 +2322,6 @@
   </si>
   <si>
     <t>Polyommatus coridon_22951W.JPG; Polyommatus coridon_08599W.JPG; Polyommatus coridon_23424W.JPG; Lycaenidae_Raupe.png; paste-6cc9fc847fd11e25e57c54cecbddfac86da7c4a1.jpg</t>
-  </si>
-  <si>
-    <t>alcon-blue-alcon-large-blue-phengaris-alcon-maculinea-alcon-glaucopsyche-alcon-female-underside-cut-out-2RBKNG4.jpg; Lycaenidae_Raupe.png; Phengaris alcon_13479W.JPG; Phengaris alcon (rebeli)_52825W.JPG; Phengaris alcon (rebeli)_12120W.JPG; paste-0226fa8f3111e5239a07e019378f9b5e2914b260.jpg; paste-7cde3301750b8f059ad6d929e40320b977b499b1.jpg</t>
   </si>
   <si>
     <t>Phengaris arion_46402W.JPG; Phengaris arion_48111W.JPG; Lycaenidae_Raupe.png; paste-e62deb52743a494e6dc1654119d696b14e683d69.jpg</t>
@@ -2656,6 +2624,60 @@
   </si>
   <si>
     <t>Speyeria_aglaja_1.jpg; Speyeria_aglaja_2.jpg; Speyeria_aglaja_3.jpg</t>
+  </si>
+  <si>
+    <t>braun;orange; schwarz</t>
+  </si>
+  <si>
+    <t>braun;orange; grün</t>
+  </si>
+  <si>
+    <t>keine orangen Flecke; schwarze Punktreihe</t>
+  </si>
+  <si>
+    <t>Pieris mannii_46578W.JPG; mannii54.jpg; paste-e65030b5bb3565e1b210d7d08f9ec0c11c788d34.jpg</t>
+  </si>
+  <si>
+    <t>croceus</t>
+  </si>
+  <si>
+    <t>Colias croceus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phengaris alcon_13479W.JPG; Phengaris alcon (rebeli)_12120W.JPG; alcon-blue-alcon-large-blue-phengaris-alcon-maculinea-alcon-glaucopsyche-alcon-female-underside-cut-out-2RBKNG4.jpg; Lycaenidae_Raupe.png; Phengaris alcon (rebeli)_52825W.JPG; paste-0226fa8f3111e5239a07e019378f9b5e2914b260.jpg; paste-7cde3301750b8f059ad6d929e40320b977b499b1.jpg</t>
+  </si>
+  <si>
+    <t>blau;schwarz; braun</t>
+  </si>
+  <si>
+    <t>blau bestÃ¤ubte Basis; schwarze Punkte; keine orangen Flecke</t>
+  </si>
+  <si>
+    <t>Postdiskalfleck in Raum 2 gleich weit vom Diskalfleck wie vom Submarginalfleck entfernt; schwarze Punkte; keine orangen Flecke</t>
+  </si>
+  <si>
+    <t>Basalfleck; orange Submarginalflecken</t>
+  </si>
+  <si>
+    <t>Colias phicomone_23037W.JPG; Colias phicomone_13416W.JPG; 01.jpg; paste-d70ee2ed851793fa1e12d228aef24894f26593ce.jpg</t>
+  </si>
+  <si>
+    <t>Hufeisenklee-Gelbling</t>
+  </si>
+  <si>
+    <t>Goldene Acht</t>
+  </si>
+  <si>
+    <t>Colias hyale_50294W.JPG; Colias hyale_50342W.JPG; 12159921.jpg; Colias_alfacariensis_1.png; paste-229a4aa31ec7655eca381bb7b79bb8bd1c004eb1.jpg</t>
+  </si>
+  <si>
+    <t>Colias hyale_50294W.JPG; Colias hyale_50342W.JPG; 12159921.jpg; Colias_hyale_1.png; paste-229a4aa31ec7655eca381bb7b79bb8bd1c004eb1.jpg</t>
+  </si>
+  <si>
+    <t>Basalfleck; keine orangen Flecke</t>
+  </si>
+  <si>
+    <t>Kleiner Ampfer-Feuerfalter</t>
   </si>
 </sst>
 </file>
@@ -2922,10 +2944,10 @@
   </sheetPr>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="P85" sqref="P85"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3017,7 +3039,7 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>24</v>
@@ -3052,7 +3074,7 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>24</v>
@@ -3061,10 +3083,10 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3093,19 +3115,19 @@
         <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3131,19 +3153,19 @@
         <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3175,19 +3197,19 @@
         <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3216,10 +3238,10 @@
         <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>60</v>
@@ -3266,10 +3288,10 @@
         <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>69</v>
@@ -3313,10 +3335,10 @@
         <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>79</v>
@@ -3354,10 +3376,10 @@
         <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>79</v>
@@ -3395,10 +3417,10 @@
         <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>91</v>
@@ -3407,7 +3429,7 @@
         <v>61</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3415,13 +3437,13 @@
         <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>56</v>
@@ -3430,19 +3452,19 @@
         <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="L12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>79</v>
@@ -3451,7 +3473,7 @@
         <v>61</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3459,13 +3481,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>56</v>
@@ -3474,16 +3496,16 @@
         <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>79</v>
@@ -3492,21 +3514,21 @@
         <v>61</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>56</v>
@@ -3515,16 +3537,16 @@
         <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>79</v>
@@ -3533,238 +3555,238 @@
         <v>61</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s">
+        <v>662</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" t="s">
-        <v>670</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>879</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" t="s">
+        <v>662</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="L16" t="s">
-        <v>670</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>751</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>880</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>662</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" t="s">
-        <v>670</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>752</v>
+        <v>882</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L19" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>132</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>56</v>
@@ -3773,39 +3795,39 @@
         <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>56</v>
@@ -3814,4052 +3836,4076 @@
         <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q21" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>151</v>
+        <v>868</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L23" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="L24" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="L25" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="L26" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="L28" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="K29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s">
+        <v>662</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" t="s">
-        <v>670</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="P29" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>202</v>
+        <v>884</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="L30" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="L32" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J34" t="s">
-        <v>222</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="P34" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35" t="s">
+        <v>216</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J35" t="s">
-        <v>222</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="P35" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="L37" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>680</v>
+        <v>869</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K39" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="L39" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="L40" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="L41" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K42" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="L44" t="s">
+        <v>662</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="L44" t="s">
-        <v>670</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="P44" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>777</v>
+        <v>873</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="K45" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="L45" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="L46" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="L47" t="s">
+        <v>662</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L47" t="s">
-        <v>670</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="P47" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="L48" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K50" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="L50" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L51" t="s">
+        <v>662</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="L51" t="s">
-        <v>670</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="P51" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="L52" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="K53" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L53" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>267</v>
+        <v>877</v>
       </c>
       <c r="K54" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L54" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="L55" t="s">
+        <v>662</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="L55" t="s">
-        <v>670</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="P55" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>267</v>
+        <v>883</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="L57" t="s">
+        <v>662</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="L57" t="s">
-        <v>670</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="P57" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="K58" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L58" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L59" t="s">
+        <v>662</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L59" t="s">
-        <v>670</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L60" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="P60" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L61" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L62" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q64" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="Q65" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="Q66" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="M67" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N67" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="Q67" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K68" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="P68" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="Q68" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="Q69" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="M70" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="Q70" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q71" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="Q72" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q73" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K74" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="M74" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N74" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q74" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="Q75" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="Q76" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N77" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="Q77" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="Q78" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="I79" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="Q79" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="I80" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K80" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N80" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q80" t="s">
         <v>842</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="I81" t="s">
+        <v>834</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="K81" t="s">
+        <v>835</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q81" t="s">
         <v>843</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="I81" t="s">
-        <v>845</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="K81" t="s">
-        <v>846</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N82" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q82" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q83" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N84" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q84" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K85" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="M85" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N85" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q85" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="I86" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N86" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="Q86" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="I87" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N87" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="P87" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="Q87" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="K88" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N88" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="Q88" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="Q89" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="K90" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="Q90" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="I91" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="P91" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="Q91" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="K92" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N92" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="Q92" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="K93" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="Q93" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="D135" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="C146" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="P147" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q147" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="151" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="152" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="154" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7097FB90-BEDF-47BD-96DB-CF2A098815E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>